--- a/data/stat probs/christian koloko stat probs - condition.xlsx
+++ b/data/stat probs/christian koloko stat probs - condition.xlsx
@@ -19,18 +19,18 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="0 before 2023 full" sheetId="10" state="visible" r:id="rId10"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 after 2023 regular" sheetId="11" state="visible" r:id="rId11"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 after 2023 full" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sun 2023 regular" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sun 2023 full" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bos 2023 regular" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bos 2023 full" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 regular" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 full" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 after 2023 regular" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 after 2023 full" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cha 2023 regular" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cha 2023 full" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 before 2023 regular" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 before 2023 full" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bos 2023 regular" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bos 2023 full" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 regular" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 full" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 after 2023 regular" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 after 2023 full" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cha 2023 regular" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cha 2023 full" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 before 2023 regular" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 before 2023 full" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tue 2023 regular" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tue 2023 full" sheetId="24" state="visible" r:id="rId24"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="phi 2023 regular" sheetId="25" state="visible" r:id="rId25"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="phi 2023 full" sheetId="26" state="visible" r:id="rId26"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="5 after 2023 regular" sheetId="27" state="visible" r:id="rId27"/>
@@ -591,28 +591,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1041,22 +1041,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -1363,16 +1363,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -1525,22 +1525,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -1751,22 +1751,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -1977,22 +1977,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -2427,22 +2427,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -2877,22 +2877,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -3327,22 +3327,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -3709,906 +3709,6 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>75</v>
-      </c>
-      <c r="D3" t="n">
-        <v>25</v>
-      </c>
-      <c r="E3" t="n">
-        <v>100</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>38</v>
-      </c>
-      <c r="H3" t="n">
-        <v>62</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>75</v>
-      </c>
-      <c r="D4" t="n">
-        <v>25</v>
-      </c>
-      <c r="E4" t="n">
-        <v>62</v>
-      </c>
-      <c r="F4" t="n">
-        <v>38</v>
-      </c>
-      <c r="G4" t="n">
-        <v>38</v>
-      </c>
-      <c r="H4" t="n">
-        <v>62</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>62</v>
-      </c>
-      <c r="D5" t="n">
-        <v>38</v>
-      </c>
-      <c r="E5" t="n">
-        <v>62</v>
-      </c>
-      <c r="F5" t="n">
-        <v>38</v>
-      </c>
-      <c r="G5" t="n">
-        <v>12</v>
-      </c>
-      <c r="H5" t="n">
-        <v>88</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>50</v>
-      </c>
-      <c r="D6" t="n">
-        <v>50</v>
-      </c>
-      <c r="E6" t="n">
-        <v>38</v>
-      </c>
-      <c r="F6" t="n">
-        <v>62</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>100</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>50</v>
-      </c>
-      <c r="D7" t="n">
-        <v>50</v>
-      </c>
-      <c r="E7" t="n">
-        <v>12</v>
-      </c>
-      <c r="F7" t="n">
-        <v>88</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>100</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>50</v>
-      </c>
-      <c r="D8" t="n">
-        <v>50</v>
-      </c>
-      <c r="E8" t="n">
-        <v>12</v>
-      </c>
-      <c r="F8" t="n">
-        <v>88</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>100</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>38</v>
-      </c>
-      <c r="D9" t="n">
-        <v>62</v>
-      </c>
-      <c r="E9" t="n">
-        <v>12</v>
-      </c>
-      <c r="F9" t="n">
-        <v>88</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>100</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>25</v>
-      </c>
-      <c r="D10" t="n">
-        <v>75</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>100</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>100</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>12</v>
-      </c>
-      <c r="D11" t="n">
-        <v>88</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>100</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>100</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
-        <v>12</v>
-      </c>
-      <c r="D12" t="n">
-        <v>88</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>100</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>100</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="n">
-        <v>12</v>
-      </c>
-      <c r="D13" t="n">
-        <v>88</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>100</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>100</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>75</v>
-      </c>
-      <c r="D3" t="n">
-        <v>25</v>
-      </c>
-      <c r="E3" t="n">
-        <v>100</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>38</v>
-      </c>
-      <c r="H3" t="n">
-        <v>62</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>75</v>
-      </c>
-      <c r="D4" t="n">
-        <v>25</v>
-      </c>
-      <c r="E4" t="n">
-        <v>62</v>
-      </c>
-      <c r="F4" t="n">
-        <v>38</v>
-      </c>
-      <c r="G4" t="n">
-        <v>38</v>
-      </c>
-      <c r="H4" t="n">
-        <v>62</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>62</v>
-      </c>
-      <c r="D5" t="n">
-        <v>38</v>
-      </c>
-      <c r="E5" t="n">
-        <v>62</v>
-      </c>
-      <c r="F5" t="n">
-        <v>38</v>
-      </c>
-      <c r="G5" t="n">
-        <v>12</v>
-      </c>
-      <c r="H5" t="n">
-        <v>88</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>50</v>
-      </c>
-      <c r="D6" t="n">
-        <v>50</v>
-      </c>
-      <c r="E6" t="n">
-        <v>38</v>
-      </c>
-      <c r="F6" t="n">
-        <v>62</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>100</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>50</v>
-      </c>
-      <c r="D7" t="n">
-        <v>50</v>
-      </c>
-      <c r="E7" t="n">
-        <v>12</v>
-      </c>
-      <c r="F7" t="n">
-        <v>88</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>100</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>50</v>
-      </c>
-      <c r="D8" t="n">
-        <v>50</v>
-      </c>
-      <c r="E8" t="n">
-        <v>12</v>
-      </c>
-      <c r="F8" t="n">
-        <v>88</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>100</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>38</v>
-      </c>
-      <c r="D9" t="n">
-        <v>62</v>
-      </c>
-      <c r="E9" t="n">
-        <v>12</v>
-      </c>
-      <c r="F9" t="n">
-        <v>88</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>100</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>25</v>
-      </c>
-      <c r="D10" t="n">
-        <v>75</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>100</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>100</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>12</v>
-      </c>
-      <c r="D11" t="n">
-        <v>88</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>100</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>100</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
-        <v>12</v>
-      </c>
-      <c r="D12" t="n">
-        <v>88</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>100</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>100</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="n">
-        <v>12</v>
-      </c>
-      <c r="D13" t="n">
-        <v>88</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>100</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>100</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4677,22 +3777,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -4866,7 +3966,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4935,22 +4035,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -5124,7 +4224,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5193,22 +4293,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -5510,7 +4610,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5579,22 +4679,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -5888,6 +4988,714 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>17</v>
+      </c>
+      <c r="D2" t="n">
+        <v>83</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2" t="n">
+        <v>83</v>
+      </c>
+      <c r="H2" t="n">
+        <v>17</v>
+      </c>
+      <c r="I2" t="n">
+        <v>83</v>
+      </c>
+      <c r="J2" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>83</v>
+      </c>
+      <c r="D3" t="n">
+        <v>17</v>
+      </c>
+      <c r="E3" t="n">
+        <v>100</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>17</v>
+      </c>
+      <c r="H3" t="n">
+        <v>83</v>
+      </c>
+      <c r="I3" t="n">
+        <v>17</v>
+      </c>
+      <c r="J3" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>67</v>
+      </c>
+      <c r="D4" t="n">
+        <v>33</v>
+      </c>
+      <c r="E4" t="n">
+        <v>83</v>
+      </c>
+      <c r="F4" t="n">
+        <v>17</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>100</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>50</v>
+      </c>
+      <c r="D5" t="n">
+        <v>50</v>
+      </c>
+      <c r="E5" t="n">
+        <v>50</v>
+      </c>
+      <c r="F5" t="n">
+        <v>50</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>100</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>50</v>
+      </c>
+      <c r="D6" t="n">
+        <v>50</v>
+      </c>
+      <c r="E6" t="n">
+        <v>33</v>
+      </c>
+      <c r="F6" t="n">
+        <v>67</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>100</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>50</v>
+      </c>
+      <c r="D7" t="n">
+        <v>50</v>
+      </c>
+      <c r="E7" t="n">
+        <v>17</v>
+      </c>
+      <c r="F7" t="n">
+        <v>83</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>100</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>33</v>
+      </c>
+      <c r="D8" t="n">
+        <v>67</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>100</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>100</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>17</v>
+      </c>
+      <c r="D9" t="n">
+        <v>83</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>100</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>100</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>17</v>
+      </c>
+      <c r="D10" t="n">
+        <v>83</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>100</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>100</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>17</v>
+      </c>
+      <c r="D2" t="n">
+        <v>83</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2" t="n">
+        <v>83</v>
+      </c>
+      <c r="H2" t="n">
+        <v>17</v>
+      </c>
+      <c r="I2" t="n">
+        <v>83</v>
+      </c>
+      <c r="J2" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>83</v>
+      </c>
+      <c r="D3" t="n">
+        <v>17</v>
+      </c>
+      <c r="E3" t="n">
+        <v>100</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>17</v>
+      </c>
+      <c r="H3" t="n">
+        <v>83</v>
+      </c>
+      <c r="I3" t="n">
+        <v>17</v>
+      </c>
+      <c r="J3" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>67</v>
+      </c>
+      <c r="D4" t="n">
+        <v>33</v>
+      </c>
+      <c r="E4" t="n">
+        <v>83</v>
+      </c>
+      <c r="F4" t="n">
+        <v>17</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>100</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>50</v>
+      </c>
+      <c r="D5" t="n">
+        <v>50</v>
+      </c>
+      <c r="E5" t="n">
+        <v>50</v>
+      </c>
+      <c r="F5" t="n">
+        <v>50</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>100</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>50</v>
+      </c>
+      <c r="D6" t="n">
+        <v>50</v>
+      </c>
+      <c r="E6" t="n">
+        <v>33</v>
+      </c>
+      <c r="F6" t="n">
+        <v>67</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>100</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>50</v>
+      </c>
+      <c r="D7" t="n">
+        <v>50</v>
+      </c>
+      <c r="E7" t="n">
+        <v>17</v>
+      </c>
+      <c r="F7" t="n">
+        <v>83</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>100</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>33</v>
+      </c>
+      <c r="D8" t="n">
+        <v>67</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>100</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>100</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>17</v>
+      </c>
+      <c r="D9" t="n">
+        <v>83</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>100</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>100</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>17</v>
+      </c>
+      <c r="D10" t="n">
+        <v>83</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>100</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>100</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
         <v>100</v>
       </c>
     </row>
@@ -5965,22 +5773,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -5997,10 +5805,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D3" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E3" t="n">
         <v>100</v>
@@ -6009,16 +5817,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="H3" t="n">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="I3" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>83</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4">
@@ -6029,22 +5837,22 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="D4" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E4" t="n">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F4" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H4" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -6061,16 +5869,16 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="D5" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E5" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="F5" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -6099,10 +5907,10 @@
         <v>50</v>
       </c>
       <c r="E6" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F6" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -6131,10 +5939,10 @@
         <v>50</v>
       </c>
       <c r="E7" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F7" t="n">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -6157,16 +5965,16 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D8" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F8" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -6189,16 +5997,16 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F9" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -6221,16 +6029,16 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F10" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -6319,28 +6127,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -6769,22 +6577,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -6801,10 +6609,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D3" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E3" t="n">
         <v>100</v>
@@ -6813,16 +6621,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="H3" t="n">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="I3" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>83</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4">
@@ -6833,22 +6641,22 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="D4" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E4" t="n">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F4" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H4" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -6865,16 +6673,16 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="D5" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E5" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="F5" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -6903,10 +6711,10 @@
         <v>50</v>
       </c>
       <c r="E6" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F6" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -6935,10 +6743,10 @@
         <v>50</v>
       </c>
       <c r="E7" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F7" t="n">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -6961,16 +6769,16 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D8" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F8" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -6993,16 +6801,16 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F9" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -7025,16 +6833,16 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F10" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -7055,6 +6863,906 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>17</v>
+      </c>
+      <c r="D2" t="n">
+        <v>83</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2" t="n">
+        <v>50</v>
+      </c>
+      <c r="H2" t="n">
+        <v>50</v>
+      </c>
+      <c r="I2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>83</v>
+      </c>
+      <c r="D3" t="n">
+        <v>17</v>
+      </c>
+      <c r="E3" t="n">
+        <v>100</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>50</v>
+      </c>
+      <c r="H3" t="n">
+        <v>50</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>67</v>
+      </c>
+      <c r="D4" t="n">
+        <v>33</v>
+      </c>
+      <c r="E4" t="n">
+        <v>100</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>17</v>
+      </c>
+      <c r="H4" t="n">
+        <v>83</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>50</v>
+      </c>
+      <c r="D5" t="n">
+        <v>50</v>
+      </c>
+      <c r="E5" t="n">
+        <v>67</v>
+      </c>
+      <c r="F5" t="n">
+        <v>33</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>100</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>50</v>
+      </c>
+      <c r="D6" t="n">
+        <v>50</v>
+      </c>
+      <c r="E6" t="n">
+        <v>50</v>
+      </c>
+      <c r="F6" t="n">
+        <v>50</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>100</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>33</v>
+      </c>
+      <c r="D7" t="n">
+        <v>67</v>
+      </c>
+      <c r="E7" t="n">
+        <v>33</v>
+      </c>
+      <c r="F7" t="n">
+        <v>67</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>100</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>17</v>
+      </c>
+      <c r="D8" t="n">
+        <v>83</v>
+      </c>
+      <c r="E8" t="n">
+        <v>33</v>
+      </c>
+      <c r="F8" t="n">
+        <v>67</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>100</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>17</v>
+      </c>
+      <c r="D9" t="n">
+        <v>83</v>
+      </c>
+      <c r="E9" t="n">
+        <v>33</v>
+      </c>
+      <c r="F9" t="n">
+        <v>67</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>100</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>17</v>
+      </c>
+      <c r="D10" t="n">
+        <v>83</v>
+      </c>
+      <c r="E10" t="n">
+        <v>17</v>
+      </c>
+      <c r="F10" t="n">
+        <v>83</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>100</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>17</v>
+      </c>
+      <c r="D11" t="n">
+        <v>83</v>
+      </c>
+      <c r="E11" t="n">
+        <v>17</v>
+      </c>
+      <c r="F11" t="n">
+        <v>83</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>100</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>17</v>
+      </c>
+      <c r="D12" t="n">
+        <v>83</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>100</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>100</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>17</v>
+      </c>
+      <c r="D13" t="n">
+        <v>83</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>100</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>100</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>17</v>
+      </c>
+      <c r="D2" t="n">
+        <v>83</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2" t="n">
+        <v>50</v>
+      </c>
+      <c r="H2" t="n">
+        <v>50</v>
+      </c>
+      <c r="I2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>83</v>
+      </c>
+      <c r="D3" t="n">
+        <v>17</v>
+      </c>
+      <c r="E3" t="n">
+        <v>100</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>50</v>
+      </c>
+      <c r="H3" t="n">
+        <v>50</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>67</v>
+      </c>
+      <c r="D4" t="n">
+        <v>33</v>
+      </c>
+      <c r="E4" t="n">
+        <v>100</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>17</v>
+      </c>
+      <c r="H4" t="n">
+        <v>83</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>50</v>
+      </c>
+      <c r="D5" t="n">
+        <v>50</v>
+      </c>
+      <c r="E5" t="n">
+        <v>67</v>
+      </c>
+      <c r="F5" t="n">
+        <v>33</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>100</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>50</v>
+      </c>
+      <c r="D6" t="n">
+        <v>50</v>
+      </c>
+      <c r="E6" t="n">
+        <v>50</v>
+      </c>
+      <c r="F6" t="n">
+        <v>50</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>100</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>33</v>
+      </c>
+      <c r="D7" t="n">
+        <v>67</v>
+      </c>
+      <c r="E7" t="n">
+        <v>33</v>
+      </c>
+      <c r="F7" t="n">
+        <v>67</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>100</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>17</v>
+      </c>
+      <c r="D8" t="n">
+        <v>83</v>
+      </c>
+      <c r="E8" t="n">
+        <v>33</v>
+      </c>
+      <c r="F8" t="n">
+        <v>67</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>100</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>17</v>
+      </c>
+      <c r="D9" t="n">
+        <v>83</v>
+      </c>
+      <c r="E9" t="n">
+        <v>33</v>
+      </c>
+      <c r="F9" t="n">
+        <v>67</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>100</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>17</v>
+      </c>
+      <c r="D10" t="n">
+        <v>83</v>
+      </c>
+      <c r="E10" t="n">
+        <v>17</v>
+      </c>
+      <c r="F10" t="n">
+        <v>83</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>100</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>17</v>
+      </c>
+      <c r="D11" t="n">
+        <v>83</v>
+      </c>
+      <c r="E11" t="n">
+        <v>17</v>
+      </c>
+      <c r="F11" t="n">
+        <v>83</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>100</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>17</v>
+      </c>
+      <c r="D12" t="n">
+        <v>83</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>100</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>100</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>17</v>
+      </c>
+      <c r="D13" t="n">
+        <v>83</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>100</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>100</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7123,22 +7831,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -7155,16 +7863,16 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
+        <v>50</v>
+      </c>
+      <c r="D3" t="n">
+        <v>50</v>
+      </c>
+      <c r="E3" t="n">
         <v>75</v>
       </c>
-      <c r="D3" t="n">
+      <c r="F3" t="n">
         <v>25</v>
-      </c>
-      <c r="E3" t="n">
-        <v>100</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>25</v>
@@ -7187,10 +7895,10 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="D4" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E4" t="n">
         <v>75</v>
@@ -7219,10 +7927,10 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="D5" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E5" t="n">
         <v>75</v>
@@ -7283,10 +7991,10 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D7" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E7" t="n">
         <v>25</v>
@@ -7315,10 +8023,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D8" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E8" t="n">
         <v>25</v>
@@ -7408,7 +8116,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7477,22 +8185,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -7509,16 +8217,16 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
+        <v>50</v>
+      </c>
+      <c r="D3" t="n">
+        <v>50</v>
+      </c>
+      <c r="E3" t="n">
         <v>75</v>
       </c>
-      <c r="D3" t="n">
+      <c r="F3" t="n">
         <v>25</v>
-      </c>
-      <c r="E3" t="n">
-        <v>100</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>25</v>
@@ -7541,10 +8249,10 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="D4" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E4" t="n">
         <v>75</v>
@@ -7573,10 +8281,10 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="D5" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E5" t="n">
         <v>75</v>
@@ -7637,10 +8345,10 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D7" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E7" t="n">
         <v>25</v>
@@ -7669,10 +8377,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D8" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E8" t="n">
         <v>25</v>
@@ -7754,906 +8462,6 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>83</v>
-      </c>
-      <c r="D3" t="n">
-        <v>17</v>
-      </c>
-      <c r="E3" t="n">
-        <v>100</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>50</v>
-      </c>
-      <c r="H3" t="n">
-        <v>50</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>67</v>
-      </c>
-      <c r="D4" t="n">
-        <v>33</v>
-      </c>
-      <c r="E4" t="n">
-        <v>100</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>17</v>
-      </c>
-      <c r="H4" t="n">
-        <v>83</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>50</v>
-      </c>
-      <c r="D5" t="n">
-        <v>50</v>
-      </c>
-      <c r="E5" t="n">
-        <v>67</v>
-      </c>
-      <c r="F5" t="n">
-        <v>33</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>100</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>50</v>
-      </c>
-      <c r="D6" t="n">
-        <v>50</v>
-      </c>
-      <c r="E6" t="n">
-        <v>50</v>
-      </c>
-      <c r="F6" t="n">
-        <v>50</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>100</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>33</v>
-      </c>
-      <c r="D7" t="n">
-        <v>67</v>
-      </c>
-      <c r="E7" t="n">
-        <v>33</v>
-      </c>
-      <c r="F7" t="n">
-        <v>67</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>100</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>17</v>
-      </c>
-      <c r="D8" t="n">
-        <v>83</v>
-      </c>
-      <c r="E8" t="n">
-        <v>33</v>
-      </c>
-      <c r="F8" t="n">
-        <v>67</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>100</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>17</v>
-      </c>
-      <c r="D9" t="n">
-        <v>83</v>
-      </c>
-      <c r="E9" t="n">
-        <v>33</v>
-      </c>
-      <c r="F9" t="n">
-        <v>67</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>100</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>17</v>
-      </c>
-      <c r="D10" t="n">
-        <v>83</v>
-      </c>
-      <c r="E10" t="n">
-        <v>17</v>
-      </c>
-      <c r="F10" t="n">
-        <v>83</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>100</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>17</v>
-      </c>
-      <c r="D11" t="n">
-        <v>83</v>
-      </c>
-      <c r="E11" t="n">
-        <v>17</v>
-      </c>
-      <c r="F11" t="n">
-        <v>83</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>100</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
-        <v>17</v>
-      </c>
-      <c r="D12" t="n">
-        <v>83</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>100</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>100</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="n">
-        <v>17</v>
-      </c>
-      <c r="D13" t="n">
-        <v>83</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>100</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>100</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>83</v>
-      </c>
-      <c r="D3" t="n">
-        <v>17</v>
-      </c>
-      <c r="E3" t="n">
-        <v>100</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>50</v>
-      </c>
-      <c r="H3" t="n">
-        <v>50</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>67</v>
-      </c>
-      <c r="D4" t="n">
-        <v>33</v>
-      </c>
-      <c r="E4" t="n">
-        <v>100</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>17</v>
-      </c>
-      <c r="H4" t="n">
-        <v>83</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>50</v>
-      </c>
-      <c r="D5" t="n">
-        <v>50</v>
-      </c>
-      <c r="E5" t="n">
-        <v>67</v>
-      </c>
-      <c r="F5" t="n">
-        <v>33</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>100</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>50</v>
-      </c>
-      <c r="D6" t="n">
-        <v>50</v>
-      </c>
-      <c r="E6" t="n">
-        <v>50</v>
-      </c>
-      <c r="F6" t="n">
-        <v>50</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>100</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>33</v>
-      </c>
-      <c r="D7" t="n">
-        <v>67</v>
-      </c>
-      <c r="E7" t="n">
-        <v>33</v>
-      </c>
-      <c r="F7" t="n">
-        <v>67</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>100</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>17</v>
-      </c>
-      <c r="D8" t="n">
-        <v>83</v>
-      </c>
-      <c r="E8" t="n">
-        <v>33</v>
-      </c>
-      <c r="F8" t="n">
-        <v>67</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>100</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>17</v>
-      </c>
-      <c r="D9" t="n">
-        <v>83</v>
-      </c>
-      <c r="E9" t="n">
-        <v>33</v>
-      </c>
-      <c r="F9" t="n">
-        <v>67</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>100</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>17</v>
-      </c>
-      <c r="D10" t="n">
-        <v>83</v>
-      </c>
-      <c r="E10" t="n">
-        <v>17</v>
-      </c>
-      <c r="F10" t="n">
-        <v>83</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>100</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>17</v>
-      </c>
-      <c r="D11" t="n">
-        <v>83</v>
-      </c>
-      <c r="E11" t="n">
-        <v>17</v>
-      </c>
-      <c r="F11" t="n">
-        <v>83</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>100</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
-        <v>17</v>
-      </c>
-      <c r="D12" t="n">
-        <v>83</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>100</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>100</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="n">
-        <v>17</v>
-      </c>
-      <c r="D13" t="n">
-        <v>83</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>100</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>100</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
         <v>100</v>
       </c>
     </row>
@@ -8731,22 +8539,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -8957,22 +8765,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -9183,16 +8991,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -9473,16 +9281,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -9769,10 +9577,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -9893,28 +9701,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -10349,10 +10157,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -10479,16 +10287,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -10801,16 +10609,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -11117,22 +10925,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -11471,22 +11279,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -11825,22 +11633,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -12051,22 +11859,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -12277,22 +12085,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -12535,22 +12343,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -12891,28 +12699,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -13439,22 +13247,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -13889,22 +13697,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -14339,22 +14147,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -14565,22 +14373,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -15183,16 +14991,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -15473,22 +15281,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -15923,16 +15731,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -16219,10 +16027,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -16349,10 +16157,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -16479,10 +16287,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -16609,10 +16417,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -16733,16 +16541,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -17023,16 +16831,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -17313,16 +17121,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -17475,16 +17283,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -17637,22 +17445,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -17959,22 +17767,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -18409,22 +18217,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -18731,16 +18539,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -18893,16 +18701,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -19055,16 +18863,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -19073,10 +18881,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -19409,16 +19217,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -19427,10 +19235,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -19763,22 +19571,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -20117,22 +19925,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -20471,16 +20279,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -20633,16 +20441,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -20795,22 +20603,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -21245,22 +21053,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -21567,22 +21375,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -22023,10 +21831,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -22185,10 +21993,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -22341,16 +22149,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -22567,16 +22375,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -22793,22 +22601,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -23243,22 +23051,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -23693,28 +23501,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
@@ -24047,28 +23855,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
@@ -24401,22 +24209,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -24627,22 +24435,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -24949,22 +24757,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -25175,16 +24983,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -25401,16 +25209,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -25627,16 +25435,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -25853,16 +25661,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -26085,10 +25893,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -26215,10 +26023,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -26339,16 +26147,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -26533,16 +26341,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -26727,22 +26535,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -27113,22 +26921,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -27435,22 +27243,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -27821,22 +27629,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -28047,22 +27855,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -28273,22 +28081,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -28563,22 +28371,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -28853,16 +28661,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -29079,16 +28887,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -29305,16 +29113,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -29595,16 +29403,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -29885,16 +29693,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
